--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906997CB-6544-4FD9-BB4B-667A2234C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B27CC6-A193-4B0F-BC3D-87D12C651052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="2897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="2906">
   <si>
     <t>No</t>
   </si>
@@ -8716,6 +8716,33 @@
   </si>
   <si>
     <t>PT BPR PARASARI URATI</t>
+  </si>
+  <si>
+    <t>PT BPR Bank Mulya Sejahtera</t>
+  </si>
+  <si>
+    <t>PT BPR LIMA PADMA MANDIRI</t>
+  </si>
+  <si>
+    <t>PT BPR PARINAMA SIMFONI INDONESIA</t>
+  </si>
+  <si>
+    <t>PT BPR ARGO DANA ARTHA</t>
+  </si>
+  <si>
+    <t>PT BPR BEPEDE KALTIM SEJAHTERA</t>
+  </si>
+  <si>
+    <t>PT BPR GLOBAL NUSANTARA</t>
+  </si>
+  <si>
+    <t>PT Duta Gadai Tanjungpinang</t>
+  </si>
+  <si>
+    <t>PT Sukha Gadai Mandiri</t>
+  </si>
+  <si>
+    <t>PT Duta Gadai Mandiri</t>
   </si>
 </sst>
 </file>
@@ -9033,10 +9060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2865"/>
+  <dimension ref="A1:C2874"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2848" workbookViewId="0">
-      <selection activeCell="C2865" sqref="C2865"/>
+      <selection activeCell="D2866" sqref="D2866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40559,6 +40586,105 @@
         <v>294</v>
       </c>
     </row>
+    <row r="2866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2866">
+        <v>2868</v>
+      </c>
+      <c r="B2866" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C2866" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2867">
+        <v>2869</v>
+      </c>
+      <c r="B2867" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C2867" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2868">
+        <v>2870</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C2868" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2869">
+        <v>2871</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C2869" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2870">
+        <v>2872</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C2870" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2871">
+        <v>2873</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C2871" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2872">
+        <v>2874</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2873">
+        <v>2875</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C2873" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2874">
+        <v>2876</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C2874" t="s">
+        <v>2190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B27CC6-A193-4B0F-BC3D-87D12C651052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8901ADB4-B8D5-4743-9795-2373CD40B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="2906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="2910">
   <si>
     <t>No</t>
   </si>
@@ -8743,6 +8751,18 @@
   </si>
   <si>
     <t>PT Duta Gadai Mandiri</t>
+  </si>
+  <si>
+    <t>PT Solusi Gadai Jabar</t>
+  </si>
+  <si>
+    <t>PT Bank SMBC Indonesia Tbk</t>
+  </si>
+  <si>
+    <t>PT Skortech Karya Indonesia</t>
+  </si>
+  <si>
+    <t>Inovasi Teknologi Sektor Keuangan (ITSK)</t>
   </si>
 </sst>
 </file>
@@ -9060,10 +9080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2874"/>
+  <dimension ref="A1:C2877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2848" workbookViewId="0">
-      <selection activeCell="D2866" sqref="D2866"/>
+    <sheetView tabSelected="1" topLeftCell="A2857" workbookViewId="0">
+      <selection activeCell="B2876" sqref="B2876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40685,6 +40705,39 @@
         <v>2190</v>
       </c>
     </row>
+    <row r="2875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2875">
+        <v>2877</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C2875" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2876">
+        <v>2878</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2877">
+        <v>2879</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>2909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123E0A2-A26C-4566-9D92-D5B043A58877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199127E3-530A-4853-B4D7-6C564F12F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="2910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5775" uniqueCount="2920">
   <si>
     <t>No</t>
   </si>
@@ -8714,9 +8714,6 @@
     <t>PT Gadai Siaga Sejahtera</t>
   </si>
   <si>
-    <t>PT BPR PANCA DANA</t>
-  </si>
-  <si>
     <t>PT BPR PARASARI URATI</t>
   </si>
   <si>
@@ -8750,9 +8747,6 @@
     <t>PT Solusi Gadai Jabar</t>
   </si>
   <si>
-    <t>PT Bank SMBC Indonesia Tbk</t>
-  </si>
-  <si>
     <t>PT Skortech Karya Indonesia</t>
   </si>
   <si>
@@ -8763,6 +8757,42 @@
   </si>
   <si>
     <t>PT BPR Nusantara Ekonomi Jaya</t>
+  </si>
+  <si>
+    <t>PT Gadai Sakti Banten</t>
+  </si>
+  <si>
+    <t>PT Putra Gadai Permata</t>
+  </si>
+  <si>
+    <t>PT Liugong Finance</t>
+  </si>
+  <si>
+    <t>PT Autopedia Gadai Jabar</t>
+  </si>
+  <si>
+    <t>PT PNM Investment Management</t>
+  </si>
+  <si>
+    <t>PT Gadai Parkir Barang</t>
+  </si>
+  <si>
+    <t>PT Mustikagadai Tiga Puteri</t>
+  </si>
+  <si>
+    <t>PT BPR SAHABAT MITRA ARTHA</t>
+  </si>
+  <si>
+    <t>PT BPR GITAMAKMUR UTAMA</t>
+  </si>
+  <si>
+    <t>PT BPR DANA RAYA JAKARTA</t>
+  </si>
+  <si>
+    <t>PT BPR KIRANA INDONESIA</t>
+  </si>
+  <si>
+    <t>PT Bank SMBCI Tbk</t>
   </si>
 </sst>
 </file>
@@ -9080,10 +9110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2877"/>
+  <dimension ref="A1:C2887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="B744" sqref="B744"/>
+    <sheetView tabSelected="1" topLeftCell="A2871" workbookViewId="0">
+      <selection activeCell="B2888" sqref="B2888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10394,7 +10424,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="C119" t="s">
         <v>97</v>
@@ -17269,7 +17299,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="C744" t="s">
         <v>293</v>
@@ -40589,7 +40619,7 @@
         <v>2863</v>
       </c>
       <c r="B2864" t="s">
-        <v>2893</v>
+        <v>2915</v>
       </c>
       <c r="C2864" t="s">
         <v>293</v>
@@ -40600,7 +40630,7 @@
         <v>2864</v>
       </c>
       <c r="B2865" t="s">
-        <v>2894</v>
+        <v>2916</v>
       </c>
       <c r="C2865" t="s">
         <v>293</v>
@@ -40608,10 +40638,10 @@
     </row>
     <row r="2866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2866">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="B2866" t="s">
-        <v>2895</v>
+        <v>2917</v>
       </c>
       <c r="C2866" t="s">
         <v>293</v>
@@ -40619,10 +40649,10 @@
     </row>
     <row r="2867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2867">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B2867" t="s">
-        <v>2896</v>
+        <v>2918</v>
       </c>
       <c r="C2867" t="s">
         <v>293</v>
@@ -40630,10 +40660,10 @@
     </row>
     <row r="2868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2868">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B2868" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="C2868" t="s">
         <v>293</v>
@@ -40641,10 +40671,10 @@
     </row>
     <row r="2869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2869">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B2869" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="C2869" t="s">
         <v>293</v>
@@ -40652,10 +40682,10 @@
     </row>
     <row r="2870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2870">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="B2870" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="C2870" t="s">
         <v>293</v>
@@ -40663,10 +40693,10 @@
     </row>
     <row r="2871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2871">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="B2871" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="C2871" t="s">
         <v>293</v>
@@ -40674,43 +40704,43 @@
     </row>
     <row r="2872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2872">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="B2872" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="C2872" t="s">
-        <v>2188</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2873">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="B2873" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="C2873" t="s">
-        <v>2188</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2874">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="B2874" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="C2874" t="s">
-        <v>2188</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2875">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="B2875" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="C2875" t="s">
         <v>2188</v>
@@ -40718,24 +40748,134 @@
     </row>
     <row r="2876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2876">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="B2876" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="C2876" t="s">
-        <v>4</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="2877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2877">
+        <v>2876</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C2877" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2878">
+        <v>2877</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2879">
+        <v>2878</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C2879" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2880">
         <v>2879</v>
       </c>
-      <c r="B2877" t="s">
-        <v>2906</v>
-      </c>
-      <c r="C2877" t="s">
-        <v>2907</v>
+      <c r="B2880" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C2880" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2881">
+        <v>2880</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2882">
+        <v>2881</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C2882" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2883">
+        <v>2882</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2884">
+        <v>2883</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2885">
+        <v>2884</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2886">
+        <v>2885</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C2886" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2887">
+        <v>2886</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C2887" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199127E3-530A-4853-B4D7-6C564F12F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332ECA0-EEF2-40C9-A476-2C543EC84A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5775" uniqueCount="2920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="2921">
   <si>
     <t>No</t>
   </si>
@@ -8793,6 +8793,9 @@
   </si>
   <si>
     <t>PT Bank SMBCI Tbk</t>
+  </si>
+  <si>
+    <t>PT WIJAYA RAYA GADAI</t>
   </si>
 </sst>
 </file>
@@ -9110,7 +9113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2887"/>
+  <dimension ref="A1:C2888"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2871" workbookViewId="0">
       <selection activeCell="B2888" sqref="B2888"/>
@@ -40878,6 +40881,17 @@
         <v>97</v>
       </c>
     </row>
+    <row r="2888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2888">
+        <v>2887</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C2888" t="s">
+        <v>2188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332ECA0-EEF2-40C9-A476-2C543EC84A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4AF663-BFC9-40C5-BB7E-39F38C6BCBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5777" uniqueCount="2921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2983">
   <si>
     <t>No</t>
   </si>
@@ -8796,6 +8796,192 @@
   </si>
   <si>
     <t>PT WIJAYA RAYA GADAI</t>
+  </si>
+  <si>
+    <t>Asosiasi Blockchain Indonesia (ABI)</t>
+  </si>
+  <si>
+    <t>PT Aset Digital Berkat (Tokocrypto)</t>
+  </si>
+  <si>
+    <t>Pedagang Aset Keuangan Digital</t>
+  </si>
+  <si>
+    <t>PT Bumi Santosa Cemerlang (Pluang)</t>
+  </si>
+  <si>
+    <t>PT CTXG Indonesia Berkarya (Mobee)</t>
+  </si>
+  <si>
+    <t>PT Indodax Nasional Indonesia (Indodax)</t>
+  </si>
+  <si>
+    <t>PT Aset Kripto Internasional (BTSE.ID)</t>
+  </si>
+  <si>
+    <t>PT Cipta Koin Digital (Naga Exchange)</t>
+  </si>
+  <si>
+    <t>PT Enkripsi Teknologi Handal (Usenobi)</t>
+  </si>
+  <si>
+    <t>PT Kagum Teknologi Indonesia (Ajaib)</t>
+  </si>
+  <si>
+    <t>PT Kripto Maksima Koin (Floq)</t>
+  </si>
+  <si>
+    <t>PT Mitra Kripto Sukses (Kriptosukses)</t>
+  </si>
+  <si>
+    <t>PT Pintu Kemana Saja (Pintu)</t>
+  </si>
+  <si>
+    <t>PT Sentra Bitwewe Indonesia (Bitwewe)</t>
+  </si>
+  <si>
+    <t>PT Tiga Inti Utama (Triv)</t>
+  </si>
+  <si>
+    <t>PT Upbit Exchange Indonesia (Upbit)</t>
+  </si>
+  <si>
+    <t>PT Rekeningku Dotcom Indonesia (Reku)</t>
+  </si>
+  <si>
+    <t>PT Teknologi Struktur Berantai (Bitwyre)</t>
+  </si>
+  <si>
+    <t>PT Tumbuh Bersama Nano (Nanovest)</t>
+  </si>
+  <si>
+    <t>PT Multikripto Exchange Indonesia (Koinsayang)</t>
+  </si>
+  <si>
+    <t>PT Samuel Kripto Indonesia (Samuel Kripto)</t>
+  </si>
+  <si>
+    <t>PT Utama Aset Digital Indonesia (Bittime)</t>
+  </si>
+  <si>
+    <t>PT Aset Instrumen Digital (ASTAL)</t>
+  </si>
+  <si>
+    <t>PT Central Finansial X</t>
+  </si>
+  <si>
+    <t>Penyelenggara Bursa Aset Keuangan Digital</t>
+  </si>
+  <si>
+    <t>PT Kliring Komoditi Indonesia</t>
+  </si>
+  <si>
+    <t>Lembaga Kliring Penjaminan dan Penyelesaian Perdagangan Aset Keuangan Digital</t>
+  </si>
+  <si>
+    <t>PT Kustodian Koin Indonesia</t>
+  </si>
+  <si>
+    <t>Pengelola Tempat Penyimpanan Aset Keuangan Digital</t>
+  </si>
+  <si>
+    <t>PT Tennet Depository Indonesia</t>
+  </si>
+  <si>
+    <t>PT Trusting Social Indonesia</t>
+  </si>
+  <si>
+    <t>Innovative Credit Scoring</t>
+  </si>
+  <si>
+    <t>PT Scoring Teknologi Indonesia</t>
+  </si>
+  <si>
+    <t>PT Izi Data Indonesia</t>
+  </si>
+  <si>
+    <t>PT Provenir Data Indonesia</t>
+  </si>
+  <si>
+    <t>PT Semangat Digital Bangsa</t>
+  </si>
+  <si>
+    <t>PT Prime Analytics Indonesia</t>
+  </si>
+  <si>
+    <t>PT Bangun Percaya Sosial</t>
+  </si>
+  <si>
+    <t>PT Tongdun Technology Indonesia</t>
+  </si>
+  <si>
+    <t>PT Aiforesee Inovasi Skor</t>
+  </si>
+  <si>
+    <t>PT Cloudun Technology Indonesia</t>
+  </si>
+  <si>
+    <t>PT Finture Tech Indonesia</t>
+  </si>
+  <si>
+    <t>Agregasi Informasi Produk dan Layanan Jasa Keuangan</t>
+  </si>
+  <si>
+    <t>PT Sarana Pasar Digital</t>
+  </si>
+  <si>
+    <t>PT Ringkas Asia Technology</t>
+  </si>
+  <si>
+    <t>PT Teknologi Cerdas Finansial</t>
+  </si>
+  <si>
+    <t>PT Finetiks Inovasi Indonesia</t>
+  </si>
+  <si>
+    <t>PT Hidup Ideal Sejahtera</t>
+  </si>
+  <si>
+    <t>PT Komunal Sejahtera Indonesia</t>
+  </si>
+  <si>
+    <t>PT Lendana Digitalindo Nusantara</t>
+  </si>
+  <si>
+    <t>PT Inovasi Finansial Untuk Indonesia</t>
+  </si>
+  <si>
+    <t>PT Estrend Teknologi Digital</t>
+  </si>
+  <si>
+    <t>PT Efunding Teknologi Keuangan</t>
+  </si>
+  <si>
+    <t>PT Indoartha Perkasa Sukses</t>
+  </si>
+  <si>
+    <t>PT Nex Teknologi Digital</t>
+  </si>
+  <si>
+    <t>PT Reliance Integrasi Dunia Anda</t>
+  </si>
+  <si>
+    <t>PT Agregasi Cermat Indonesia</t>
+  </si>
+  <si>
+    <t>PT Solusi Inklusi Finansial</t>
+  </si>
+  <si>
+    <t>PT Loan Market Indo</t>
+  </si>
+  <si>
+    <t>PT Xfers Indonesia Teknologi</t>
+  </si>
+  <si>
+    <t>PT Unicorn Technology Indonesia</t>
+  </si>
+  <si>
+    <t>PT Seedflex Technologies Indonesia</t>
   </si>
 </sst>
 </file>
@@ -9113,10 +9299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2888"/>
+  <dimension ref="A1:C2946"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2871" workbookViewId="0">
-      <selection activeCell="B2888" sqref="B2888"/>
+      <selection activeCell="D2887" sqref="D2887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40892,6 +41078,644 @@
         <v>2188</v>
       </c>
     </row>
+    <row r="2889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2889">
+        <v>2888</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C2889" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2890">
+        <v>2889</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2891">
+        <v>2890</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2892">
+        <v>2891</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2893">
+        <v>2892</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2894">
+        <v>2893</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2895">
+        <v>2894</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2896">
+        <v>2895</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2897">
+        <v>2896</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2898">
+        <v>2897</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2899">
+        <v>2898</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2900">
+        <v>2899</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2901">
+        <v>2900</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2902">
+        <v>2901</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2903">
+        <v>2902</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2904">
+        <v>2903</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2905">
+        <v>2904</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2906">
+        <v>2905</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2907">
+        <v>2906</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2908">
+        <v>2907</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2909">
+        <v>2908</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2910">
+        <v>2909</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2911">
+        <v>2910</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2912">
+        <v>2911</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2913">
+        <v>2912</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2914">
+        <v>2913</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2915">
+        <v>2914</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2916">
+        <v>2915</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2917">
+        <v>2916</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2918">
+        <v>2917</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2919">
+        <v>2918</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2920">
+        <v>2919</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2921">
+        <v>2920</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2922">
+        <v>2921</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2923">
+        <v>2922</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2924">
+        <v>2923</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2925">
+        <v>2924</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2926">
+        <v>2925</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2927">
+        <v>2926</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2928">
+        <v>2927</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2929">
+        <v>2928</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2930">
+        <v>2929</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2931">
+        <v>2930</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2932">
+        <v>2931</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2933">
+        <v>2932</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2934">
+        <v>2933</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2935">
+        <v>2934</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2936">
+        <v>2935</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2937">
+        <v>2936</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2938">
+        <v>2937</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2939">
+        <v>2938</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2940">
+        <v>2939</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2941">
+        <v>2940</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2942">
+        <v>2941</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2943">
+        <v>2942</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2944">
+        <v>2943</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2945">
+        <v>2944</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2946">
+        <v>2945</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>2963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4AF663-BFC9-40C5-BB7E-39F38C6BCBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D29006-F067-451F-A60B-A609A64633AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="2983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="2986">
   <si>
     <t>No</t>
   </si>
@@ -8982,6 +8982,15 @@
   </si>
   <si>
     <t>PT Seedflex Technologies Indonesia</t>
+  </si>
+  <si>
+    <t>PT Cyrameta Exchange Indonesia (CYRA)</t>
+  </si>
+  <si>
+    <t>PT BPR PANCA DANA</t>
+  </si>
+  <si>
+    <t>PT Bank SMBC Indonesia Tbk</t>
   </si>
 </sst>
 </file>
@@ -9299,10 +9308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2946"/>
+  <dimension ref="A1:C2949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2871" workbookViewId="0">
-      <selection activeCell="D2887" sqref="D2887"/>
+    <sheetView tabSelected="1" topLeftCell="A2928" workbookViewId="0">
+      <selection activeCell="E2948" sqref="E2948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41347,10 +41356,10 @@
         <v>2912</v>
       </c>
       <c r="B2913" t="s">
-        <v>2944</v>
+        <v>2983</v>
       </c>
       <c r="C2913" t="s">
-        <v>2945</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="2914" spans="1:3" x14ac:dyDescent="0.3">
@@ -41358,10 +41367,10 @@
         <v>2913</v>
       </c>
       <c r="B2914" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="C2914" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="2915" spans="1:3" x14ac:dyDescent="0.3">
@@ -41369,10 +41378,10 @@
         <v>2914</v>
       </c>
       <c r="B2915" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="C2915" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="2916" spans="1:3" x14ac:dyDescent="0.3">
@@ -41380,7 +41389,7 @@
         <v>2915</v>
       </c>
       <c r="B2916" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="C2916" t="s">
         <v>2949</v>
@@ -41391,10 +41400,10 @@
         <v>2916</v>
       </c>
       <c r="B2917" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="C2917" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="2918" spans="1:3" x14ac:dyDescent="0.3">
@@ -41402,7 +41411,7 @@
         <v>2917</v>
       </c>
       <c r="B2918" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="C2918" t="s">
         <v>2952</v>
@@ -41413,7 +41422,7 @@
         <v>2918</v>
       </c>
       <c r="B2919" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="C2919" t="s">
         <v>2952</v>
@@ -41424,7 +41433,7 @@
         <v>2919</v>
       </c>
       <c r="B2920" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="C2920" t="s">
         <v>2952</v>
@@ -41435,7 +41444,7 @@
         <v>2920</v>
       </c>
       <c r="B2921" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="C2921" t="s">
         <v>2952</v>
@@ -41446,7 +41455,7 @@
         <v>2921</v>
       </c>
       <c r="B2922" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="C2922" t="s">
         <v>2952</v>
@@ -41457,7 +41466,7 @@
         <v>2922</v>
       </c>
       <c r="B2923" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="C2923" t="s">
         <v>2952</v>
@@ -41468,7 +41477,7 @@
         <v>2923</v>
       </c>
       <c r="B2924" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="C2924" t="s">
         <v>2952</v>
@@ -41479,7 +41488,7 @@
         <v>2924</v>
       </c>
       <c r="B2925" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="C2925" t="s">
         <v>2952</v>
@@ -41490,7 +41499,7 @@
         <v>2925</v>
       </c>
       <c r="B2926" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="C2926" t="s">
         <v>2952</v>
@@ -41501,10 +41510,10 @@
         <v>2926</v>
       </c>
       <c r="B2927" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C2927" t="s">
-        <v>2963</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="2928" spans="1:3" x14ac:dyDescent="0.3">
@@ -41512,7 +41521,7 @@
         <v>2927</v>
       </c>
       <c r="B2928" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="C2928" t="s">
         <v>2963</v>
@@ -41523,7 +41532,7 @@
         <v>2928</v>
       </c>
       <c r="B2929" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="C2929" t="s">
         <v>2963</v>
@@ -41534,7 +41543,7 @@
         <v>2929</v>
       </c>
       <c r="B2930" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C2930" t="s">
         <v>2963</v>
@@ -41545,7 +41554,7 @@
         <v>2930</v>
       </c>
       <c r="B2931" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="C2931" t="s">
         <v>2963</v>
@@ -41556,7 +41565,7 @@
         <v>2931</v>
       </c>
       <c r="B2932" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C2932" t="s">
         <v>2963</v>
@@ -41567,7 +41576,7 @@
         <v>2932</v>
       </c>
       <c r="B2933" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="C2933" t="s">
         <v>2963</v>
@@ -41578,7 +41587,7 @@
         <v>2933</v>
       </c>
       <c r="B2934" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C2934" t="s">
         <v>2963</v>
@@ -41589,7 +41598,7 @@
         <v>2934</v>
       </c>
       <c r="B2935" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="C2935" t="s">
         <v>2963</v>
@@ -41600,7 +41609,7 @@
         <v>2935</v>
       </c>
       <c r="B2936" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C2936" t="s">
         <v>2963</v>
@@ -41611,7 +41620,7 @@
         <v>2936</v>
       </c>
       <c r="B2937" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="C2937" t="s">
         <v>2963</v>
@@ -41622,7 +41631,7 @@
         <v>2937</v>
       </c>
       <c r="B2938" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="C2938" t="s">
         <v>2963</v>
@@ -41633,7 +41642,7 @@
         <v>2938</v>
       </c>
       <c r="B2939" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="C2939" t="s">
         <v>2963</v>
@@ -41644,7 +41653,7 @@
         <v>2939</v>
       </c>
       <c r="B2940" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="C2940" t="s">
         <v>2963</v>
@@ -41655,7 +41664,7 @@
         <v>2940</v>
       </c>
       <c r="B2941" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="C2941" t="s">
         <v>2963</v>
@@ -41666,7 +41675,7 @@
         <v>2941</v>
       </c>
       <c r="B2942" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="C2942" t="s">
         <v>2963</v>
@@ -41677,7 +41686,7 @@
         <v>2942</v>
       </c>
       <c r="B2943" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="C2943" t="s">
         <v>2963</v>
@@ -41688,7 +41697,7 @@
         <v>2943</v>
       </c>
       <c r="B2944" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="C2944" t="s">
         <v>2963</v>
@@ -41699,7 +41708,7 @@
         <v>2944</v>
       </c>
       <c r="B2945" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="C2945" t="s">
         <v>2963</v>
@@ -41710,10 +41719,43 @@
         <v>2945</v>
       </c>
       <c r="B2946" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="C2946" t="s">
         <v>2963</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2947">
+        <v>2946</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2948">
+        <v>2947</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2949">
+        <v>2948</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D29006-F067-451F-A60B-A609A64633AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BA8977-A332-4EAD-95D1-F6DCE12898E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8987,10 +8987,10 @@
     <t>PT Cyrameta Exchange Indonesia (CYRA)</t>
   </si>
   <si>
-    <t>PT BPR PANCA DANA</t>
-  </si>
-  <si>
-    <t>PT Bank SMBC Indonesia Tbk</t>
+    <t>PT KRIPTO INOVASI NUSANTARA (COINX)</t>
+  </si>
+  <si>
+    <t>PT COINBIT DIGITAL INDONESIA (STOCKBIT)</t>
   </si>
 </sst>
 </file>
@@ -9310,8 +9310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2928" workbookViewId="0">
-      <selection activeCell="E2948" sqref="E2948"/>
+    <sheetView tabSelected="1" topLeftCell="A2940" workbookViewId="0">
+      <selection activeCell="A2914" sqref="A2914:C2949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41367,10 +41367,10 @@
         <v>2913</v>
       </c>
       <c r="B2914" t="s">
-        <v>2944</v>
+        <v>2984</v>
       </c>
       <c r="C2914" t="s">
-        <v>2945</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="2915" spans="1:3" x14ac:dyDescent="0.3">
@@ -41378,10 +41378,10 @@
         <v>2914</v>
       </c>
       <c r="B2915" t="s">
-        <v>2946</v>
+        <v>2985</v>
       </c>
       <c r="C2915" t="s">
-        <v>2947</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="2916" spans="1:3" x14ac:dyDescent="0.3">
@@ -41389,10 +41389,10 @@
         <v>2915</v>
       </c>
       <c r="B2916" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="C2916" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="2917" spans="1:3" x14ac:dyDescent="0.3">
@@ -41400,10 +41400,10 @@
         <v>2916</v>
       </c>
       <c r="B2917" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="C2917" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="2918" spans="1:3" x14ac:dyDescent="0.3">
@@ -41411,10 +41411,10 @@
         <v>2917</v>
       </c>
       <c r="B2918" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="C2918" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="2919" spans="1:3" x14ac:dyDescent="0.3">
@@ -41422,10 +41422,10 @@
         <v>2918</v>
       </c>
       <c r="B2919" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="C2919" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="2920" spans="1:3" x14ac:dyDescent="0.3">
@@ -41433,7 +41433,7 @@
         <v>2919</v>
       </c>
       <c r="B2920" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="C2920" t="s">
         <v>2952</v>
@@ -41444,7 +41444,7 @@
         <v>2920</v>
       </c>
       <c r="B2921" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="C2921" t="s">
         <v>2952</v>
@@ -41455,7 +41455,7 @@
         <v>2921</v>
       </c>
       <c r="B2922" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="C2922" t="s">
         <v>2952</v>
@@ -41466,7 +41466,7 @@
         <v>2922</v>
       </c>
       <c r="B2923" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="C2923" t="s">
         <v>2952</v>
@@ -41477,7 +41477,7 @@
         <v>2923</v>
       </c>
       <c r="B2924" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="C2924" t="s">
         <v>2952</v>
@@ -41488,7 +41488,7 @@
         <v>2924</v>
       </c>
       <c r="B2925" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="C2925" t="s">
         <v>2952</v>
@@ -41499,7 +41499,7 @@
         <v>2925</v>
       </c>
       <c r="B2926" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="C2926" t="s">
         <v>2952</v>
@@ -41510,7 +41510,7 @@
         <v>2926</v>
       </c>
       <c r="B2927" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="C2927" t="s">
         <v>2952</v>
@@ -41521,10 +41521,10 @@
         <v>2927</v>
       </c>
       <c r="B2928" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="C2928" t="s">
-        <v>2963</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="2929" spans="1:3" x14ac:dyDescent="0.3">
@@ -41532,10 +41532,10 @@
         <v>2928</v>
       </c>
       <c r="B2929" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="C2929" t="s">
-        <v>2963</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="2930" spans="1:3" x14ac:dyDescent="0.3">
@@ -41543,7 +41543,7 @@
         <v>2929</v>
       </c>
       <c r="B2930" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="C2930" t="s">
         <v>2963</v>
@@ -41554,7 +41554,7 @@
         <v>2930</v>
       </c>
       <c r="B2931" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="C2931" t="s">
         <v>2963</v>
@@ -41565,7 +41565,7 @@
         <v>2931</v>
       </c>
       <c r="B2932" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="C2932" t="s">
         <v>2963</v>
@@ -41576,7 +41576,7 @@
         <v>2932</v>
       </c>
       <c r="B2933" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="C2933" t="s">
         <v>2963</v>
@@ -41587,7 +41587,7 @@
         <v>2933</v>
       </c>
       <c r="B2934" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="C2934" t="s">
         <v>2963</v>
@@ -41598,7 +41598,7 @@
         <v>2934</v>
       </c>
       <c r="B2935" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="C2935" t="s">
         <v>2963</v>
@@ -41609,7 +41609,7 @@
         <v>2935</v>
       </c>
       <c r="B2936" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="C2936" t="s">
         <v>2963</v>
@@ -41620,7 +41620,7 @@
         <v>2936</v>
       </c>
       <c r="B2937" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="C2937" t="s">
         <v>2963</v>
@@ -41631,7 +41631,7 @@
         <v>2937</v>
       </c>
       <c r="B2938" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="C2938" t="s">
         <v>2963</v>
@@ -41642,7 +41642,7 @@
         <v>2938</v>
       </c>
       <c r="B2939" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="C2939" t="s">
         <v>2963</v>
@@ -41653,7 +41653,7 @@
         <v>2939</v>
       </c>
       <c r="B2940" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="C2940" t="s">
         <v>2963</v>
@@ -41664,7 +41664,7 @@
         <v>2940</v>
       </c>
       <c r="B2941" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="C2941" t="s">
         <v>2963</v>
@@ -41675,7 +41675,7 @@
         <v>2941</v>
       </c>
       <c r="B2942" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="C2942" t="s">
         <v>2963</v>
@@ -41686,7 +41686,7 @@
         <v>2942</v>
       </c>
       <c r="B2943" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C2943" t="s">
         <v>2963</v>
@@ -41697,7 +41697,7 @@
         <v>2943</v>
       </c>
       <c r="B2944" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="C2944" t="s">
         <v>2963</v>
@@ -41708,7 +41708,7 @@
         <v>2944</v>
       </c>
       <c r="B2945" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="C2945" t="s">
         <v>2963</v>
@@ -41719,7 +41719,7 @@
         <v>2945</v>
       </c>
       <c r="B2946" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="C2946" t="s">
         <v>2963</v>
@@ -41730,7 +41730,7 @@
         <v>2946</v>
       </c>
       <c r="B2947" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="C2947" t="s">
         <v>2963</v>
@@ -41741,10 +41741,10 @@
         <v>2947</v>
       </c>
       <c r="B2948" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="C2948" t="s">
-        <v>293</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="2949" spans="1:3" x14ac:dyDescent="0.3">
@@ -41752,10 +41752,10 @@
         <v>2948</v>
       </c>
       <c r="B2949" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="C2949" t="s">
-        <v>4</v>
+        <v>2963</v>
       </c>
     </row>
   </sheetData>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BA8977-A332-4EAD-95D1-F6DCE12898E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC05A6-3BAA-4449-86CD-AC385CE32047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="2986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5901" uniqueCount="2987">
   <si>
     <t>No</t>
   </si>
@@ -8991,6 +8991,9 @@
   </si>
   <si>
     <t>PT COINBIT DIGITAL INDONESIA (STOCKBIT)</t>
+  </si>
+  <si>
+    <t>PT Alpha Aset Manajemen</t>
   </si>
 </sst>
 </file>
@@ -9308,10 +9311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2949"/>
+  <dimension ref="A1:C2950"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2940" workbookViewId="0">
-      <selection activeCell="A2914" sqref="A2914:C2949"/>
+      <selection activeCell="B2950" sqref="B2950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41758,6 +41761,17 @@
         <v>2963</v>
       </c>
     </row>
+    <row r="2950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2950">
+        <v>2949</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>2605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC05A6-3BAA-4449-86CD-AC385CE32047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DBBDA-0E8A-4DAC-9CBF-438D8316FA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5901" uniqueCount="2987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="2988">
   <si>
     <t>No</t>
   </si>
@@ -8994,6 +8994,9 @@
   </si>
   <si>
     <t>PT Alpha Aset Manajemen</t>
+  </si>
+  <si>
+    <t>PT Pedagang Aset Kripto (Coinvest)</t>
   </si>
 </sst>
 </file>
@@ -9311,10 +9314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2950"/>
+  <dimension ref="A1:C2951"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2940" workbookViewId="0">
-      <selection activeCell="B2950" sqref="B2950"/>
+      <selection activeCell="D2950" sqref="D2950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41772,6 +41775,17 @@
         <v>2605</v>
       </c>
     </row>
+    <row r="2951" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2951">
+        <v>2950</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>2923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DBBDA-0E8A-4DAC-9CBF-438D8316FA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E538C4-774E-43A7-BDF1-B17CA41C37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="2988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5905" uniqueCount="2989">
   <si>
     <t>No</t>
   </si>
@@ -8997,6 +8997,9 @@
   </si>
   <si>
     <t>PT Pedagang Aset Kripto (Coinvest)</t>
+  </si>
+  <si>
+    <t>PT Pergadaian Utama Indonesia</t>
   </si>
 </sst>
 </file>
@@ -9314,10 +9317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2951"/>
+  <dimension ref="A1:C2952"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2940" workbookViewId="0">
-      <selection activeCell="D2950" sqref="D2950"/>
+      <selection activeCell="E2952" sqref="E2952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41786,6 +41789,17 @@
         <v>2923</v>
       </c>
     </row>
+    <row r="2952" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2952">
+        <v>2951</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>2188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E538C4-774E-43A7-BDF1-B17CA41C37DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053E650-2A95-4EFB-8856-BBC01DDCBDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5905" uniqueCount="2989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="2991">
   <si>
     <t>No</t>
   </si>
@@ -9000,6 +9000,12 @@
   </si>
   <si>
     <t>PT Pergadaian Utama Indonesia</t>
+  </si>
+  <si>
+    <t>PT Bank SMBC Indonesia Tbk</t>
+  </si>
+  <si>
+    <t>PT BPR PANCA DANA</t>
   </si>
 </sst>
 </file>
@@ -9317,10 +9323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2952"/>
+  <dimension ref="A1:C2954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2940" workbookViewId="0">
-      <selection activeCell="E2952" sqref="E2952"/>
+    <sheetView tabSelected="1" topLeftCell="A2934" workbookViewId="0">
+      <selection activeCell="D2954" sqref="D2954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41800,6 +41806,28 @@
         <v>2188</v>
       </c>
     </row>
+    <row r="2953" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2953">
+        <v>2952</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2954">
+        <v>2953</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053E650-2A95-4EFB-8856-BBC01DDCBDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5277E85-1F4F-4530-A43C-E10C8D5EE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="2991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="2992">
   <si>
     <t>No</t>
   </si>
@@ -9006,6 +9006,9 @@
   </si>
   <si>
     <t>PT BPR PANCA DANA</t>
+  </si>
+  <si>
+    <t>PT Dwitunggal Pegadai Praktis</t>
   </si>
 </sst>
 </file>
@@ -9323,7 +9326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2954"/>
+  <dimension ref="A1:C2955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2934" workbookViewId="0">
       <selection activeCell="D2954" sqref="D2954"/>
@@ -41828,6 +41831,17 @@
         <v>293</v>
       </c>
     </row>
+    <row r="2955" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2955">
+        <v>2954</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>2188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5277E85-1F4F-4530-A43C-E10C8D5EE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D391407C-B12E-4022-A1C2-24A7D426C51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="2992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915" uniqueCount="2994">
   <si>
     <t>No</t>
   </si>
@@ -9009,6 +9009,12 @@
   </si>
   <si>
     <t>PT Dwitunggal Pegadai Praktis</t>
+  </si>
+  <si>
+    <t>PT Anugrah Gadai Indonesia</t>
+  </si>
+  <si>
+    <t>PT Putra Gadai Permata Indonesia</t>
   </si>
 </sst>
 </file>
@@ -9326,10 +9332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2955"/>
+  <dimension ref="A1:C2957"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2934" workbookViewId="0">
-      <selection activeCell="D2954" sqref="D2954"/>
+      <selection activeCell="F2953" sqref="F2953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41842,6 +41848,28 @@
         <v>2188</v>
       </c>
     </row>
+    <row r="2956" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2956">
+        <v>2955</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2957">
+        <v>2956</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>2188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D391407C-B12E-4022-A1C2-24A7D426C51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02434B74-D033-4CCD-931A-AC22A9A6FAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915" uniqueCount="2994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="2995">
   <si>
     <t>No</t>
   </si>
@@ -9015,6 +9015,9 @@
   </si>
   <si>
     <t>PT Putra Gadai Permata Indonesia</t>
+  </si>
+  <si>
+    <t>Bank Syariah Nasional</t>
   </si>
 </sst>
 </file>
@@ -9332,10 +9335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2957"/>
+  <dimension ref="A1:C2958"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2934" workbookViewId="0">
-      <selection activeCell="F2953" sqref="F2953"/>
+      <selection activeCell="B2958" sqref="B2958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41870,6 +41873,17 @@
         <v>2188</v>
       </c>
     </row>
+    <row r="2958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2958">
+        <v>2957</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>2374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/pujk.xlsx
+++ b/pujk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OJK\Penugasan 2\acara\gencar\monev\olah data\coding\running\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02434B74-D033-4CCD-931A-AC22A9A6FAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A6FAB-7FD0-46BC-8832-99C3E888CACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="2995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="2996">
   <si>
     <t>No</t>
   </si>
@@ -9018,6 +9018,9 @@
   </si>
   <si>
     <t>Bank Syariah Nasional</t>
+  </si>
+  <si>
+    <t>PT Fortuna Integritas Mandiri (ICEx)</t>
   </si>
 </sst>
 </file>
@@ -9335,10 +9338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2958"/>
+  <dimension ref="A1:C2959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2934" workbookViewId="0">
-      <selection activeCell="B2958" sqref="B2958"/>
+    <sheetView tabSelected="1" topLeftCell="A2943" workbookViewId="0">
+      <selection activeCell="F2958" sqref="F2958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41884,6 +41887,17 @@
         <v>2374</v>
       </c>
     </row>
+    <row r="2959" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2959">
+        <v>2958</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>2945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
